--- a/_Lang_Korean/Lang/KR/Game/Zone.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="473">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -1025,10 +1025,10 @@
     <t xml:space="preserve">asylum</t>
   </si>
   <si>
-    <t xml:space="preserve">Asylum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アシュラム</t>
+    <t xml:space="preserve">Orphanage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孤児院</t>
   </si>
   <si>
     <t xml:space="preserve">You see an orphanage. The laughter of children echoes in the air.</t>
@@ -3674,7 +3674,7 @@
         <v>335</v>
       </c>
       <c r="B92" t="s">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
         <v>436</v>

--- a/_Lang_Korean/Lang/KR/Game/Zone.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.25</t>
+    <t xml:space="preserve">EA 23.26 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
